--- a/Test.xlsx
+++ b/Test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,14 +463,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>red</t>
+          <t>purple</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>purple</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -480,32 +480,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>the cat sat on a rug</t>
+          <t>red</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>lion</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>purple</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>lizard</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>the cat sat on a rug</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>lion</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>lizard</t>
+          <t>reptile</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -513,12 +517,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>tree</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>reptile</t>
+          <t>tiger tiger tiger</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -526,20 +530,16 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>tree</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>tiger tiger tiger</t>
-        </is>
-      </c>
+          <t>bush</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>bush</t>
+          <t>leaf</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -548,7 +548,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>leaf</t>
+          <t>green</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -557,20 +557,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>the dragon roared</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>the dragon roared</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C742"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,115 +453,7583 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>blue</t>
+          <t>As Earth Day Approaches, Celebrate Texas A&amp;M's Commitment to Sustainability</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>dragon</t>
+          <t>Scientist Creates New Hypothesis On Ocean Acidification</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>purple</t>
+          <t>University of Maine: Research Reveals Genetic Response of Ocean Warming and Acidification in American Lobster</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>Rep. Courtney Issues Statement on Consolidated Appropriations Act</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>mammal</t>
+          <t>Monitoring the progress of ocean acidification</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>red</t>
+          <t>Written Statement Of Kathryn Sullivan, Ph.D. Acting Under Secretary Of Commerce For Oceans And Atmosphere And Acting NOAA Administrator Before The Subcommittee On Fisheries, Wildlife, Oceans, And Insular Affairs Committee On Natural Resources</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>lion</t>
-        </is>
-      </c>
+      <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>lizard</t>
+          <t>Ocean Acidification: NSF awards $11.4 Million in New Grants to Study Effects on Marine Ecosystems</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>the cat sat on a rug</t>
+          <t>Scientists Use App to Engage Citizens in Ocean Acidification Study</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>tiger</t>
-        </is>
-      </c>
+      <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>reptile</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>Southern Ocean's Role in Climate Regulation, Ocean Health is Goal of $21 Million Federal Grant</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Study suggests baby lobsters may be adaptable to changes in Gulf of Maine Researchers examined how genes in post-larval crustaceans react to the effects of the waters' warming and acidification.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>tree</t>
-        </is>
-      </c>
+      <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>tiger tiger tiger</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>'Sea butterflies' are part of effort to better understand changing oceans</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>State-of-the-art Ocean Chemistry Monitoring Comes to Humboldt Bay</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>bush</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Congressional Research Service: 'Federal Involvement in Ocean-Based Research &amp; Development' (Part 1 of 2)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Oregon Sea Grant Co-Sponsors 'Next Wave' Heceta Head Coastal Conference</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>leaf</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bainbridge nonprofit gets $1.5M grant</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Oregon Sea Grant Announces 2016-18 Research Grant Recipients</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>NOAA Announces Grants to Predict Ocean Acidification's Effects on Commercial Fisheries</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Oregon State University: Oregon Sea Grant Awards $1.15 Million to Researchers for Five Marine-Related Projects</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>the dragon roared</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>NSF Awards Grants to Study Effects of Ocean Acidification</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Kilmer, Herrera Beutler, Bonamici, Young Introduce Bipartisan Bill to Fight Ocean Acidification</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Press Release: XL Catlin announces Ocean Risk Grants for Early Career Scientists</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Rep. Herrera Beutler's Bipartisan Bill to Fight Ocean Acidification Passes House</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Researchers tackle data gaps in ocean acidification impacts</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Jaime Herrera Beutler's Bipartisan Bill to Fight Ocean Acidification Approved By Committee, Ready for Full House Vote</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Ocean lab may close</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>State largely ignores role as seas grow more acidic</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>THE WORLD; An oceanic train wreck looms; Scientists are alarmed at how quickly carbon dioxide from the atmosphere is pushing the seas toward a great unraveling.</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>$2 Million Available in Grants/Cooperative Agreements for Addressing Impacts of Multiple Stressors on Shellfish Aquaculture</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>NSF Awards Grants to Scripps Scientists to Study Effects of Ocean Acidification</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>University of Washington: Ocean Acidification Impacts Oysters' Memory of Environmental Stress</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>State Department of Environmental Conservation Releases Final Ocean Action Plan for New York</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ocean Acidification Discussion on Tap at Corvallis Science Pub</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Britain joins battle to save creatures of the frozen seas</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Sen. Murkowski Introduces Bill to Address Ocean Acidification</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Southern Ocean's Role in Climate Regulation, Ocean Health Goal of $21 Million Federal Grant</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Alaska Sea Grant: New Video Focuses on Alaska's Acidifying Oceans</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Ocean Acidification: Finding New Answers Through National Science Foundation Research Grants</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>NOAA Sea Grant Liaisons Address Critical Research Areas Across Federal Agencies</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Website launched to monitor ocean acidification off Alaska</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>USING VR TO SHOW CLIMATE REALITY</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>UAF increases research into ocean acidification</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Nutrient Pollution Makes Ocean Acidification Worse for Coral Reefs</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Congressional Research Service: 'Federal Involvement in Ocean-Based Research &amp; Development' (Part 2 of 2)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ocean's acidity causes concern for shellfish</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Tiny Bainbridge nonprofit gets $1.5M grant</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>DEC and New York Sea Grant Announce Nearly $570,000 in New York Ocean Research Grants</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Fighting Ocean Acidification Through Kelp</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>House Select Committee on Climate Crisis Issues Testimony From Under Secretary of Commerce Spinrad</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>$11.25 Million Funding Available for Ocean Acidification Studies</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Oregon State Alumna, Leader of California Marine Science Center to Lead Oregon Sea Grant</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Ocean Acidification: Making New Discoveries Through National Science Foundation Research Grants</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Maine Sea Grant receives $800,000 in federal funding</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Sea Champion for Ocean and Air Post</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Unraveling the Mysteries of Spot Shrimp</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Western's Shannon Point Marine Center Awarded Grant to Study the Impacts of Ocean Acidification</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>UMaine Researchers Find Rising Ocean Temperatures, Acidification Worsen Immune Response, Physiology in Lobsters</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Sea Champion Picked for Ocean, Air Agency</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Survey: Oyster Industry More Sold on Ocean Acidification Impacts than Public</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Ocean Acidification May Reduce Sea Scallop Fisheries</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>University of California Davis: For Red Abalone, Resisting Ocean Acidification Starts With Mom</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>First ocean acidification monitor launched</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>OSU-based Oregon Sea Grant to Award Grants to Researchers in Oregon</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>$11 Million Funding Available for Ocean Acidification Research</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Rep. Kilmer's Bipartisan Bill to Fight Ocean Acidification Passes House</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>OSU, Consortium Get NSF Grant to Continue Ocean Observatories Initiative</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>House Natural Resources Committee Issues Testimony From National Ocean Service Acting Administrator LeBoeuf</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Capps Introduces Bill to Combat Ocean Acidification</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Reps. Herrera Beutler, Kilmer, Bonamici, Young Introduce Bipartisan Bill to Fight Ocean Acidification</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>$10 Million Funding Available for Studying Impacts of Ocean Acidification on Oceanic Environments</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Philippe Cousteau, Jr. To Lead EarthEcho Expedition in America's Pacific Northwest to Help Solve Ocean Acidification</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Offshore wind project will benefit Maine's economy and the environment</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Philippe Cousteau, Jr.'s EarthEcho International Profiles Youth Leaders in Action with EarthEcho Expedition: Shell Shocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>UC-San Diego: NSF Grants $53 Million to Create a Global Fleet of Robotic Floats to Monitor Ocean Health</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Chair Huffman Introduces Bipartisan Bill to Reauthorize National Sea Grant College Program</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Ahead of Earth Day, Reps. Carbajal and Fitzpatrick Introduce Bipartisan Bills to Protect U.S. Coastlines, Promote Ocean Health</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>House Natural Resources Subcommittee Issues Testimony From Alaska Ocean Observing System</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Coast Monitoring: $900,000 available for ocean research</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Cal Poly Research Finds Abalone May Be Resilient During Ocean Acidification</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Size the Main Factor in Predicting How Calcifying Organisms Will Respond to Ocean Acidification</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>NOAA Sea Grant Awards $15.9 Million For Projects To Build Resilient Coastal Communities</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>NOAA, Partners Provide Real-Time Ocean Acidification Data To Pacific Coast Shellfish Growers</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Alaska Sea Grant Awards Over $1 Million for Research</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>UMaine team to track diseased lobsters</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Fearing a threat to shellfish industry, Washington Legislature provides funds for kelp, eelgrass protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Pacific takes a perilous turn</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Texas A&amp;M-Corpus Christi Life Sciences Professor Earns Prestigious NSF Grant to Study Oysters</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>WHOI Scientists Receive $1 Million Grant from MacArthur Foundation</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Rep. Kilmer Joins Bipartisan Call for $10B Investment in Coastal Restoration Jobs</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>UCSB Receives Grant to Study Ocean Acidification</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Economy top concern at forum: Fishermen's event to tackle rules, ocean energy</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Tiny snails offer insight to sea woes</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Texas A&amp;M University: Sediment Cores From Ocean Floor Could Contain 23M Year Old Climate Change Clues</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Dire state of ocean's health met with tide of pledges at UN Ocean Conference, as Lisbon Declaration launches new chapter for ocean action</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Greality: Greeley native earns funding to study ocean; distillery earns award; Assistance League accepting donations</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>NSF grant helps oceans, GV students</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Reps. Bonamici, Young Call for Investment in Ocean, Coastal Recovery</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Hundreds of scientists gather in Portland to address The Gulf of Maine 2050 International Symposium is aimed at sharing the latest science on ocean acidification and rising sea levels and ocean temperatures, and how those changes will affect the region's economy, environment and people.</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Nicholls Chemistry Student Receives Grant for Research That Led to Publication and a Bombshell Discovery</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>University of Hawaii: $2.7M for Ocean Floats, Satellites to Give University of Hawaii Scientists New Ocean, Climate Insights</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Maine Sea Grant, University of Maine Advance $2M Initiative Aimed at Increasing Resilience in the Lobster Fishery</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Around the County</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Rep. Pingree's Bipartisan Legislation to Protect America's Working Waterfronts Passes House</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Tough work if you can get it</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Tasty and Pink, Sea Urchin Species May Be a Climate-Tolerant Food Source</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Salesforce.Com Inc to Participate In A Panel Discussion 'Taking Action for the Ocean' - Final</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Warming waters</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Scientists gather in Portland to discuss climate change in Gulf of Maine</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Reps. Young, Bonamici Call for Investment in Ocean, Coastal Recovery</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>UC-San Diego: Ocean Acidification is Transforming California Mussel Shells</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Stony Brook University: Chris Gobler's LI Sound Research Receives Federal Funding</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Farming Alaska’s seas</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Acting Director of NOAA's National Ocean Service, Office of Ocean and Coastal Resource Management, Margaret Davidson speaks on Impacts of Environmental Changes on Treaty Rights, Traditional Lifestyles, and Tribal Homelands</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>XL Catlin Announces Ocean Risk Grants for Early Career Scientists</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>House Passes Bonamici Provisions to Accelerate Ocean Research in Climate Crisis</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>United States: United States Announces $800 Million in International Commitments for Protecting Our Ocean</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>University of California-Davis: Climate Change Could Shrink Oyster Habitat in California</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>New Report Shows Ocean Resources and Coastal Communities Are Vital to Overall U.S. Economy yet Climate Change Poses Major Threat</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>New Alaska Sea Grant-Funded Graduate Students Dive Into Research</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Tuna could replace cod by 2050 due to warmer Scottish seas</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>VEGGIES OF THE SEA</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>University of Washington Awarded $23.5M to Build Floating Robots As Part of NSF Project to Monitor the World's Oceans</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>University of Hawaii: Hawaiian Corals Show Surprising Resilience to Warming Oceans</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Oceanography grad students reap rewards of $1.5M gift</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>At last week's United Nations Climate Change Conference in Germany,... [Derived headline]</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Congressional Research Service: 'Approaches for Sustainable Management of U.S. Ocean Waters &amp; Ocean Economy - Considerations for Congress'</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Murkowski's Appropriations Work Strengthens Alaska's Communities, Fisheries</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>United States: United States Announces Commitments at Seventh Our Ocean Conference</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>'Need a crystal ball to see what the future holds'</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Reps. Carbajal and Fitzpatrick Reintroduce Bipartisan Bills to Protect U.S. Coastlines, Promote Ocean Health</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Written Statement of Kathryn Sullivan, Ph.D. Acting Under Secretary of Commerce for Oceans and Atmosphere and Acting NOAA Administrator on the National Oceanic and Atmospheric Administration's FY 2014 Budget Request</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Rep. Panetta Announces NOAA Federal Grant for the University of California, Santa Cruz</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>WASHINGTON OYSTERS STRUGGLE AS WATER pH SHIFTS Legislature funds Department of Natural Resources plan to restore kelp, eelgrass in hopes to help shellfish farms</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>State's coastal economy worth preserving</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Fish &amp; Wildlife Service Review Marine Mammal Stock Assessment Report for Southern Sea Otter</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>House Science Subcommittee Issues Testimony From Ocean Conservancy</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Under Secretary of Commerce for Oceans and Atmosphere and NOAA Administrator Jane Lubchenco Testifies on the National Oceanic and Atmospheric Administration's FY 2012 Budget Request</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Holistic restoration</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Earth Day Awards honor local efforts</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Utrecht University, Royal Netherlands Institute for Sea Research Join Forces in Eleven More Joint Research Projects on Coastal Seas, Oceans</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>New Federal Money For Hawai'i Ocean Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>EDUCATION DIGEST</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>URI to Host Lecture Series on 'State of Our Oceans' Beginning Feb. 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Congressional Research Service: 'Ocean Acidification - Frequently Asked Questions'</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Maine finally addressing climate change in the gulf</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>XL Catlin announces Ocean Risk Grants for Early Career Scientists</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Hawaii corals found to be more resilient than first thought</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Are Rising Seas, Coastal Erosion &amp; Powerful Storms a Wave of the Future for Small Island Nations?</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Reps. Pingree, Wittman Reintroduce Bipartisan Bill to Preserve Working Waterfronts</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Keeping tabs on our blue backyard</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Reps. Wittman, Pingree Reintroduce Bipartisan Bill to Preserve Working Waterfronts</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>OSU Scientists to Study Effects of Acidification on Shellfish</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>House Appropriations Committee Issues Report on Commerce, Justice, Science Appropriations Bill (Part 2 of 8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>SEN. MARK BEGICH HOLDS A HEARING ON INNOVATIVE PARTNERSHIPS IN OCEAN OBSERVATION</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Murkowski Supports a Safer and More Prosperous Alaska</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Iran: Changes in Ocean Due to Climate Change</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Under Secretary of Commerce for Oceans and Atmosphere Testifies on the National Oceanic and Atmospheric Administration's FY 2012 Budget Request</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr"/>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Rep. Young's Legislation to Remove Ocean Debris and Promote Healthy Waters Passes the House</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Commerce Issues Annual Report Entitled 'Technology Transfer: Approach and Plans, FY 2020 Activities and Achievements' (Part 3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr"/>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>United States: Our Ocean 2016 Commitments</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Island Institute Awarded $240,000 Grant from the National Academies to Support Disaster Preparedness in Maine's Island and Coastal Communities</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr"/>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>United States: Opening the Next Steps Panel of Our Ocean Conference</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>NOAA: Ensuring A Future For Seafood In A Changing Ocean - Part 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Amsler’s dive into Antarctic Ocean airs Thursday on NatGeo Wild</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>SEN. MARIA CANTWELL HOLDS A HEARING ON THE F.Y. 2008 BUDGET FOR THE NATIONAL OCEANIC AND ATMOSPHERIC ADMINISTRATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr"/>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Five Teams Advance to Hawaii for Final Stage of $2 Million Wendy Schmidt Ocean Health XPRIZE</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Marine Biological Laboratory: Can Growing Seaweed Protect Shellfish Farms As Climate Warms? The Roberson Lab Is Finding Out</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr"/>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Landmark deep-sea mission to boost ocean action</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>State sets aside years of skepticism to confront Gulf of Maine warming "Climate change was a dirty term politically in Maine, and people didn't think it was real or didn't want to react to it."</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>This is the most sobering report card yet on climate change and Earth's future. Here’s what you need to know</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Marine Science Symposium Offers Teaching Ideas</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Ocean wind progress a welcome development</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Committee Approves FY2020 Commerce, Justice, Science Appropriations Bill</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr"/>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>OSU wins grant to build ocean research vessels</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Lecture series focuses on ocean concerns</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr"/>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>White House floats expansion of Pacific Ocean sanctuary</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Scientists investigate climate change impact on fisheries</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr"/>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>State Department Fact Sheet: 'U.S. Announces Commitments at 7th Our Ocean Conference'</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Children’s Museum of the Brazos Valley – “Under the Sea” Oceanography Camp - Maroon Weekly</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr"/>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Connecticut’s coastal economy is worth preserving</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Under Secretary of Commerce for Oceans and Atmosphere and NOAA Administrator Jane Lubchenco Testifies on National Oceanic and Atmospheric Administration's Fy 2012 Budget Request</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr"/>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Changes in Ocean Due to Climate Change</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>How scientists are using virtual reality to show people effects of global warming</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr"/>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Princeton University: When Will We Observe Significant Changes in Ocean Due to Climate Change? New Study Offers Road Map</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>sea star wasting syndrome</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr"/>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Researchers Recover Recorder from Antarctic Waters Containing Critical Baseline on Acidification</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>House Science Subcommittee Issues Testimony From NOAA Director Thur</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr"/>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Reps. Fitzpatrick, Carbajal Reintroduce Bipartisan Bills to Protect U.S. Coastlines, Promote Ocean Health</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Mike Spranger: It's an ocean world</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr"/>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Ocean Institute readies for remodel</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Salmon May Lose the Ability to Smell Danger as Carbon Emissions Rise</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr"/>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>State Dept. Fact Sheet: U.S. Announces $800 Million in International Commitments for Protecting Our Ocean</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Join lobstermen, others concerned with environment at climate march</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr"/>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Maine islands at risk as ocean levels rise Change means challenges for each of these coastal micro-economies, where resilient communities are already planning for the 'what-ifs.'</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Riding the research wave Oregon State hopes Newport building and Marine Studies Initiative will be a boon for science and the coast</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr"/>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Obama Creates Atlantic Ocean's First Marine Monument</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Rep. Pingree's Bill to Preserve Working Waterfronts Gets First Hearing in 116th Congress</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr"/>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>FACT SHEET: Leading at Home and Internationally to Protect Our Ocean and Coasts</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Lobster babies can teach lessons on climate change</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr"/>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>International Research Team to Study Effects of Ocean Acidification on Iron Availability to Phytoplankton in North Pacific</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>SEN. JOHN D. ROCKEFELLER IV HOLDS A HEARING ON COAST GUARD, COMMERCE, NTSB, MARINE MAMMAL AND AMTRAK NOMINATIONS</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr"/>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>UW gets $126 million grant -- largest ever -- for ocean observatory</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>An ocean of research Hatfield Marine Science Center celebrates 50 years in Newport</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr"/>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>UC-San Diego: Fresh Sea Spray Turns 'Sour' After Being Airborne</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>House Natural Resources Subcommittee Issues Testimony From NOAA Administrator Spinrad</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr"/>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Hundreds of scientists gather in Portland to address climate change in the Gulf of Maine</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Virtually convinced on global warming</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr"/>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>State action on gulf acidification sluggish</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>House Appropriations Issues Report on Commerce, Justice, Science Appropriations Bill - Title I - Office of Oceanic &amp; Atmospheric Research (Part 4 of 12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr"/>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Team DuraFET Awarded $250,000 in Wendy Schmidt Ocean Health XPRIZE</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>House Natural Resources Committee Issues Report on Keep America's Waterfronts Working Act</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr"/>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>United States: Our Ocean Town Hall Event in Valparaiso, Chile</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>House Space Subcommittee Issues Testimony From Mote Marine Laboratory President Crosby</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr"/>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Federal ocean-study lab in Sandy Hook could be closed</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Former Interior Secretary Sally Jewell Brings Leadership to UW Community, New EarthLab Initiative</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr"/>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Action sluggish on acidification</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Reps. Bonamici, Posey Lead Bipartisan Call for $10B Investment in Coastal Restoration Jobs</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr"/>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Montana Team Takes Home Both Top Prizes in $2 Million Wendy Schmidt Ocean Health XPRIZE</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>NOAA Administrator Jane Lubchenco stepping down in February (Posted 2012-12-12 17:15:58)</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr"/>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>14 Teams Advance to Seattle Aquarium in Pursuit of $2 Million Wendy Schmidt Ocean Health XPRIZE</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Down East Maine producer of Kelp Krunch, Dulse seaweed products plans $1.5M expansion</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr"/>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>NOAA Awards More Than $1.3 Million to Predict Coastal Acidification Impacts to Commercial Species and Vulnerable Habitats</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>UNCA alum among graduation speakers</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr"/>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Pumping iron into ocean gets chilly reception: A global-warming solution or just more ocean pollution? A ship docked in Fort Lauderdale is at the center of a scientific and environmental controversy</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>NOAA Administrator Jane Lubchenco stepping down in February (Posted 2012-12-13 19:27:24)</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr"/>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>LETTERS TO THE EDITOR</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>VIMS scientists track climate toll on lobster</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr"/>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Scientists look to protect Gulf of Maine</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>King: Data key to protecting lobster fishery</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr"/>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>SECRETARY OF STATE JOHN KERRY REMARKS AT OUR OCEAN TOWN HALL EVENT IN VALPARAISO, CHILE, AS RELEASED BY THE STATE DEPARTMENT</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>King seeks data on lobsters at conference</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr"/>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>United States: Announcements by the United States at Our Ocean 2016</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Economy top concern at forum Fishermen's event to tackle rules, ocean energy</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr"/>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Senate Commerce Committee Issues Report on Coordinated Ocean Observations &amp; Research Act (Part 2 of 2)</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Rep. Pingree Calls American Jobs Plan Once-in-a-Generation Opportunity to Modernize Nation's Infrastructure</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr"/>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Interior awards grants for coral reef initiatives</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Findings Portend Benefits in Restoration and Aquaculture</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr"/>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>UConn Research: More Carbon in the Ocean Can Lead to Smaller Fish</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Channel Islands National Marine Sanctuary Advisory Council Issues Public Comment on NOAA Notice</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr"/>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>United States: Closing the Next Steps Panel of Our Ocean Conference</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Sen. King tells researchers that data is the key to protecting lobster industry</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr"/>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Group issues call to action to protect coast</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Sen. Blumenthal Demands Measures to Ensure Connecticut Fisherman Get a Fair Shake</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr"/>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>University of Hawaii Manoa: $9M Grant Aims to Restore Waikiki Reefs With Coral Nurseries</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>House Natural Resources Subcommittee Issues Testimony From EPA Ex-Administrator Browner</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr"/>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>OSU Inks Largest Research Grant in Its History to Begin Ship Construction</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>King seeks data on lobsters at Portland conference</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr"/>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Visitors signal a sea change</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>House Transportation &amp; Infrastructure Subcommittee Issues Testimony From NOAA</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr"/>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Federal research funding in doubt</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>House Select Committee on Climate Crisis Issues Testimony From University Florida Professor</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr"/>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>NSF Awards $13 Million in Third Set of Coastal Sustainability Grants</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>2018 Presidential Award Winners Named</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr"/>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Norway: The Minister of Foreign Affairs' Opening of the Our Ocean Conference 2019</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Lobsters in a Virginia lab can tell us about the threats of climate change</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr"/>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Western Washington University: Shannon Point Receives National Science Foundation Grant to Study Oceanic Water Quality</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Something is killing gray whales. Is it a sign of oceans in peril?</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr"/>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Sen. Cantwell: NOAA Announces $3.31 Billion Investment in Coastal Resilience, Salmon Recovery, and Infrastructure - Largest in Agency's History</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Halibut prices through the roof as quota cuts reduce supply</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr"/>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>IOOS Awards $31M for Ocean Observing</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Acidifying Oceans Could Spell Trouble for Squid</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr"/>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Lautenberg, Menendez Applaud the Awarding of Two Federal Research Grants to Princeton University</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>University of Maine Research Institutions Receive More Than $660k to Study the American Lobster</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr"/>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>In troubled waters</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Ocean Conservancy Issues Statement on $700 Million Cut to NOAA Budget Proposed by House</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr"/>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>THREAT TO KEY RESOURCE DRAWS A TEPID RESPONSE</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>New oceanography major now open to undergraduates</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr"/>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Tempted by a very 'unique' opportunity</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Picks and pans for 2021 in Alaska’s seafood industry</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr"/>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Boulder coalition sees role in saving seas for those at a mile high</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Senate Appropriations Committee Issues Report on 2020 Commerce, Justice, Science Appropriations Bill (Part 3 of 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr"/>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Studies testing kelp as local fix for acidifying seawater</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Maine environmental advocates warn of 'crippling' cuts in Trump budget</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr"/>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Seventy Percent of Climate Pact Signatories Include Oceans in Their Climate Change Action Plans</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Deeper EPA cuts pose a particular menace to Maine</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr"/>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Observatory lets UH analyze the ocean 3 miles under surface</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Wasting syndrome wiping out North Kitsap sea stars</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr"/>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>EDITORIAL: Ocean wind progress a welcome development</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>RISE EVIDENT IF YOU KNOW WHERE TO LOOK</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr"/>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Under the Atlantic, Aquarius Reef Base offers a window on the ocean and space</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>THE `CANARIES' UNDER THE SOUND ; MICROSCOPIC SHELLS SHED BY SINGLE-CELLED CREATURES LIE DEEP WITHIN THE ESTUARY'S SEDIMENT, AND RESEARCHERS BELIEVE THEY HAVE A LOT TO TELL US ABOUT CLIMATE CHANGE.</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr"/>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>House Science, Space &amp; Technology Committee Issues Report on COAST Research Act</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Candidates to debate, oil, gas and mining issues at ComFish</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr"/>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>U.S. university receives grant to begin new research vessel construction</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Reps. Bonamici, Young Lead Bipartisan Call for $10B Coastal Community Investment in Build Back Better Plan</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr"/>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Whitehouse Introduces Legislation to Protect Oceans &amp; Coastal Communities</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Keynote Address by the NOAA Administrator at the International Coral Reef Symposium 2010, Cairns, Australia</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr"/>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Announcements by the United States at Our Ocean 2016</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Honolulu Sues Petroleum Companies For Climate Change Damages to City</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr"/>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>GAO Releases Reports on Climate Change, Oceans</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Picks and pans for 2021 in Alaska's seafood industry</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr"/>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Duke University-Nicholas School of Environment: Dual Approach Needed to Save Sinking Cities, Bleaching Corals</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>HOUSE APPROPRIATIONS COMMITTEE, COMMERCE, JUSTICE, SCIENCE, AND RELATED AGENCIES SUBCOMMITTEE HEARING ON F.Y. 2019 NOAA BUDGET</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr"/>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>United States: Leveraging Technology To Protect Our Ocean</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>National Oceanic and Atmospheric Administration Administrator Testifies on the National Oceanic and Atmospheric Administration's FY 2012 Budget Request</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr"/>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>RESEARCH GRANT SYSTEM FACES PROGRESS REPORT</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Fisheries picks and pans for 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr"/>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>IIT to set up research unit for observing Bay of Bengal</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Climate change affects fish and reefs</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr"/>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>SHELLFISH FACE RISK Acidic water a new threat to oysters and clams in LI Sound</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Alaskan seafood has opening in home meal replacement kits</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr"/>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>House Infrastructure Subcommittee Issues Testimony From Office of the Governor of Virginia</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>REP. RALPH M. HALL HOLDS A HEARING ON THE NOAA AND EPA BUDGETS</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr"/>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Researchers study ocean canyons in marine sanctuary</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Cooperative Agreements Make $2 Million Available for American Lobster Research</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr"/>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>5 Rep. Kilmer Bills to Combat Climate Change Included in New Climate Crisis Recommendations</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>The world in your hands</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr"/>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Written Statement of Kathryn Sullivan, Ph.D., Under Secretary of Commerce for Oceans and Atmosphere and NOAA Administrator at the NOAA FY 2015 Budget Hearing</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Summer Interns Focus on Seafood Science in Kodiak</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr"/>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>North by Northwest</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>King, Pingree Announce More Than $5 Million to Protect Maine Coastal Communities</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr"/>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Obama unveils moves aimed at protecting oceans</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Issuance of an Incidental Harassment Authorization Notice Posted in Federal Register</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr"/>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>House Science Committee Issues Testimony From Woods Hole Oceanographic Institution</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Taking Marine Mammals Incidental to Rocky Intertidal Monitoring Surveys Along the Oregon and California Coasts Notice Posted in Federal Register</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr"/>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>From Maine's warming waters, a new cash crop</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Gear, Not Geoducks, Impacts Ecosystem If Farming Increases</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr"/>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Department of Defense Awards Funds to Ten UC San Diego Researchers to Develop Instrumentation</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Economist: Many factors involved in retail salmon prices</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr"/>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Young, Bonamici Unveil Next Step to Remove, Prevent Marine Pollution</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>House Appropriations Subcommittee Issues Joint Testimony From NOAA</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr"/>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>House Infrastructure Subcommittee Issues Testimony From Chesapeake Bay Foundation</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>REP. JOHN FLEMING HOLDS A HEARING ON NATIONAL OCEANIC AND ATMOSPHERIC ADMINISTRATION BUDGET</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr"/>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>REP. BRIAN BAIRD HOLDS A HEARING ON CLIMATE CHANGE</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Takes of Marine Mammals Incidental to Specified Activities Notice Posted in Federal Register</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr"/>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Briefs</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>House Appropriations Committee Issues Report on Commerce, Justice, Science, Related Agencies Appropriations Bill, 2018 (Part 7 of 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr"/>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>UC Santa Barbara Marine Scientists Receive Multimillion-Dollar NSF Grants to Fund Long-Term Research</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Picks and pans for Alaska’s seafood industry in 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr"/>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>song of the sea</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Annual Picks and Pans closes out 27th year of Fish Factor</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr"/>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Senate Commerce Committee Chair Cantwell: NOAA Announces $3.31 Billion Investment in Coastal Resilience, Salmon Recovery, and Infrastructure - Largest in Agency's History</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Shellfish show promise</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr"/>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Environmental education; Grant to fund new class at Sandoway Discovery Center; Delray Beach</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Despite high prices, halibut stays in demand</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr"/>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>UVic ocean science gets $46M injection</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>$2 million awarded to funding lobster research in Maine</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr"/>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Bonamici, Young Unveil Next Step to Remove, Prevent Marine Pollution</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Sen. Murphy Secures Robust Funding to Support Long Island Sound Aquaculture Research, Connecticut Shellfish Industry &amp; NOAA's Milford Lab</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr"/>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>UM Grant Will Place Sensors Beneath Arctic Ice</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Maine Conservationists Endorse Tom Allen for Senate</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr"/>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>House Rules Committee Issues Report on Coastal Zone Management Act (Part 2 of 3)</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>House Appropriations Committee Issues Report on Commerce, Justice, Science, Related Agencies Appropriations Bill 2019 (Part 6 of 6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr"/>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Oakland's Joaquin Miller, Hillcrest students honored as "Ocean Guardians"</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Del. Bordallo Addresses U.S. Coral Reef Task Force</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr"/>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Governor Lincoln D. Chafee Announces Six Teams to Share $810,000 in 2013 Collaborative Research Grant Awards</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Isles warned of grim future for tourism</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr"/>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Northern Chumash Bear Clan Issues Public Comment on OSHA Proposed Rule</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Bristol Bay Students Learn Lessons in State Politics in Juneau</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr"/>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>URI Researchers are Partners on All Six Grants Awarded to Foster Collaboration in Rhode Island</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Annual best and worst of the past year in state fisheries</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr"/>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>House Members Offer Economic Incentive for Ocean Research</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Alaska's 2007 fish retrospective: Same 'ole, same 'ole</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr"/>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Ocean generates 10.7 percent of state GDP</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Cooperative Agreement Makes $36.8 Million Available for Cooperative Institute to Support NOAA Marine Research, Ecosystem Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr"/>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>House Natural Resources Committee Issues Testimony From U.S. Virgin Islands Department of Planning &amp; Natural Resources</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>NOAA Fisheries Alaska Issues Report Entitled 'Aquaculture Accomplishments'</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr"/>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Coral Reef Resilience: University of Pennsylvania</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>EPA cuts could have major impact on Maine cleanup efforts</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr"/>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>UNH Ocean Scientists Get Funds for Continued Coastal Water Monitoring</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Appropriations Committee Passes Funding For Tsunami Warning System</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr"/>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>OSU lands $122M grant for Newport research ship</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>SEN. DANIEL K. AKAKA HOLDS A HEARING ON TRIBAL IMPACTS OF ENVIRONMENTAL CHANGES</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr"/>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Young Floridians are riding the wave of ocean restoration | Commentary</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Kodiak Summer Interns Benefit Seafood Industry</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr"/>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Hawaii company proposes deep-sea limu farm for food and fuel</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>ProfNet Experts Available on Paris Agreement, Hurricane Preparedness, More</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr"/>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Readers write: Letters to the editor, January 11, 2017</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>CSU's COAST, Others to Convene at Global PRIMO Sessions to Address Toxins in Aquatic Life, May 15-18 in Long Beach</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr"/>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>With NSF Grant, UCLA Scientists to Predict Climate Change in Key Coastal Regions Around the World</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Where Trump would cut, Congress would restore</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr"/>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>IIT Inks Pact With Centre to Set up Ocean Observatory</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>EVENTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr"/>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Can adding minerals to ocean curb climate change? Elon Musk backs UM grad's research</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>H APPROPS HEARING ON THE DEPARTMENT OF COMMERCE F.Y. 2018 BUDGET</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr"/>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Bahamas Builds Resilience Against a Surging Sea</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Fishing's 'year in review' for 2007 ; SPOTLIGHT: RESOURCES</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr"/>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Opening the Next Steps Panel of Our Ocean Conference</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Maryland Commission on Climate Change Issues Report Entitled 'Recommendations for Reducing Greenhouse Gas Emissions and Preparing for and Adapting to the Impacts of Climate Change' (Part 1 of 3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr"/>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Kerry, Leonardo Dicaprio On Second Day of Our Ocean Conference [document]</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Congress set to reject Trump's wide range of federal program cuts</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr"/>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>SECRETARY OF STATE JOHN KERRY DELIVERS OPENING REMARKS ON THE SECOND DAY OF THE "OUR OCEAN" CONFERENCE</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Good for business and nature, kelp grows on Maine fishermen</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr"/>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Rep. Posey Recognizes National Estuary Week</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Senate Science Subcommittee Issues Testimony From Lake Superior National Estuarine Research Reserve</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr"/>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Second Day of Our Ocean Conference</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>EPA cuts seen as peril to Maine</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr"/>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Geo-pipe dreams; Six radical ways to save Planet Earth--or not</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Weather records back Cicilline climate claim</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr"/>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>United States: USAID Announces New Programs to Protect our Ocean</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Winlock High School Team Competes at Annual Orca Bowl</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr"/>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Pumping iron into ocean gets chilly reception</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Fish picks and pans for 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr"/>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Alameda: Lincoln students honored as 'Ocean Guardians'</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>REP. FRANK R. WOLF, R-VA., HOLDS A HEARING ON NOAA BUDGET</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr"/>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Tribes commit to uphold Paris climate agreement</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Hey drivers, follow laws, keep us all safe</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr"/>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Reef research center to help unlock, preserve sea treasures</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Strong fishing highlights year in review, picks and pans</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr"/>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Monterey Bay Aquarium Research Institute Receives $75,000 Federal Grant</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Walker orders mariculture task force</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr"/>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Young Floridians are riding the wave of ocean restoration guest columnist</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>REP. JOHN CULBERSON</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr"/>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>NOAA: 6 Cool Northeast Aquaculture Science Collaborations to Follow</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Trump's budget cuts may cripple programs</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr"/>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>A CSUN professor is on the case of an ‘ecological whodunit’ after hurricanes ravage Caribbean</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Alaska Mariculture Task Force Issues Final Report Report to Gov. Dunleavy</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr"/>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Black hole, Antarctic sea temps no problem for UA's high-performance computers</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>UF Institute of Food and Agricultural Sciences extensions work to mitigate climate change</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr"/>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>$7 million grant to help Mote start holistic phase of reef restoration</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>The Aua Transect</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr"/>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>When learning is fun</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>We can help slow changes to climate</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr"/>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>How California is saving its sea life</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>OPINION: Welch takes a look back at the past year of fishy news</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr"/>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>World: Oceans, Fisheries and Coastal Economies</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Kelp farm permits still more popular than shellfish</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr"/>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>SECRETARY OF STATE JOHN KERRY DELIVERS REMARKS AT THE NEXT STEPS PANEL OF THE "OUR OCEAN" CONFERENCE</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Alaska may profit from popularity of home-meal kits</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr"/>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>18 Teams Vie for $2 Million Wendy Schmidt Ocean Health XPRIZE</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Picks and pans feature best and worst in 2017 fish news</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr"/>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>EarthX to Celebrate World Oceans Week in Partnership with the National Geographic Society</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Senate panel considers Robinson nomination to NOAA</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr"/>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Immersed in a competition</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Snapshot of Alaska seafood industry in '11</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr"/>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Chair Grijalva Introduces Ocean-Based Climate Solutions Act</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>OSU Names Lubchenco Adviser for Marine Sciences</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr"/>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Must we risk destroying the ocean to save the planet?</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Univ. of Miami Student Bignami Among 5 Guy Harvey Scholarship Recipients</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr"/>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>U.S. Secretary of State Kerry Opening Next Steps Panel At Ocean Conference [document]</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Alaskans live on frontier of climate change</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr"/>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Black hole, Antarctic sea temps no problem for UA computers</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Coast Guard begins Arctic research cruise</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr"/>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>NSF Awards Rapid Response Grants to Study Current El Nino, One of the Strongest on Record</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Applications for aquatic farming in Alaska drop due to pandemic, and kelp is favored over shellfish</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr"/>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Deep Seabed Mining Coalition Sends Letter to President Biden Urging a Moratorium on Dangerous Mining</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Scientists struggle to save seagrass from coastal pollution</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr"/>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Our Ocean Town Hall Event in Valparaiso, Chile</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Scientists struggle to save seagrass from pollution</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr"/>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Al Jazeera English - Al Jazeera Media Network: After days at sea with the Cook Islands PM, here’s what I learned</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>'State of the Coast' Conference Set for Oct. 27 in Coos Bay</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr"/>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>The Johnny Appleseed of Sugar Kelp</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Annual picks and pans from the year that was in Alaska fisheries</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr"/>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Maritime climate actions for Pakistan's 2030 Plan</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Mainers have a strong voice - tell Collins why we need science funding Amid a budget battle, an oceanographer seeks help advocating for NOAA, the National Science Foundation and the U.S. Geological Survey.</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr"/>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Senate Votes to Establish Oceans Endowment</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Foreign fishermen to 'talk shop' at forum</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr"/>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Obama Administration Releases Action Plan to Address Ocean Challenges</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Anchorage mayor vows to reduce greenhouse gas emissions after Trump’s Paris pullout</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr"/>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Obama Protects an Area of Canyons and Peaks in the Warming Atlantic</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Science and Resilience Institute at Jamaica Bay Awarded $3.6 Million to Support Research on Resilience in Urban Coastal Ecosystems</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr"/>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>A Lifesaving Transplant for Coral Reefs</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>USM Hosting Panel on Federal Budget Cuts and Maine Fisheries</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr"/>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>‘It’s happening now’: how rising sea levels are causing a US migration crisis</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Fishermen use technology to stay educated, updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr"/>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>USAID Announces New Programs to Protect Our Ocean</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr"/>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>India, France adopt roadmap for partnership in Blue Economy and Ocean Governance</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr"/>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>State's climate change efforts fall short</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr"/>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>What Can Fossil Shellfish Tell Us About Our Environmental Future? Plenty.</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr"/>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Maritime climate actions for Pakistan's 2030 plan |</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr"/>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Coral Reefs to Dissolve in an Acid Ocean by the End of the Century</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr"/>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Call for Action to Address Key Ocean Challenges Provides Robust, Forward-Looking Framework for Action</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr"/>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>United States: Second Day of Our Ocean Conference</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr"/>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Controlling algae</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr"/>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>United States: U.S. Engagement in the Pacific</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr"/>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Young Floridians are riding the wave of ocean restoration Viewpoint</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr"/>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Promising to ‘Make Our Planet Great Again,’ Macron lures 13 U.S. climate scientists to France</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr"/>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>The acid tests Bigelow Laboratory's 'time machine' aims to find out - with an eye to helping improve - how key species will fare in a future that includes far more acidic and far warmer Maine waters.</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr"/>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>The effects on species that thrive in cold waters provide glimpses of the damage that rising ocean temperatures can do, but the federal and state response remains weak.</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr"/>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>House Natural Resources Committee Issues Report on Coastal State Climate Preparedness Act</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr"/>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>European Union: EU leads the way with ambitious action for cleaner and safer seas</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr"/>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Dispatches</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr"/>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>How investors are coming up with the green to save the ocean blue</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr"/>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Battery-Metal Rush Pits Miners Against Marine Biologists</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr"/>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Environment Grants of $117,000 Aid Climate Change Research</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr"/>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>How to Save the World's Coral Reefs? Scientists Look to the Red Sea for Answers</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr"/>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>CSUN Marine Biologists Receive Nearly $1.9 Million for Coral Reef Research</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr"/>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Letters to the editor (Aug. 13)</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr"/>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>U.S. HOUSE: DISTRICT 16</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr"/>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>International effort will study salmon populations deep in the Gulf of Alaska</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr"/>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Citizens Campaign for the Environment Issues Public Comment on Bureau of Ocean Energy Management Notice</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr"/>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>House Natural Resources Subcommittee Issues Testimony From Stockton University</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr"/>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Scripps Oceanography to build fleet of data-collecting robotic ocean floats</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr"/>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>University of Victoria: Expert Q&amp;A - Sea Otters Boost Genetic Diversity of Eelgrass Meadows</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr"/>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Sen. Sullivan Votes for COVID-19 Relief, Government Funding Bill</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr"/>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Run-Off, Emissions Deliver Double Whammy To Coastal Marine Creatures, UGA Study Finds</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr"/>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>POINT OF VIEW: Trump administration plans endanger Florida waters</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr"/>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>your say</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr"/>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Lively debate expected in Capitol</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr"/>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Maine islands face a rising risk from climate change</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr"/>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Bering Sea Fishermen's Association Issues Public Comment to Commerce Dept.</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr"/>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>What whales are telling us about Earth; High-resolution photos and skin samples studied by scientists show sea mammals suffering sunburn while at the surface</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr"/>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Teresa Heinz and the Heinz Family Foundation Celebrate Recipients of $1 Million Heinz Awards</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr"/>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>College of New Jersey: Two School of Science Professors Receive NSF Grants to Study Marine Organisms and Climate Change</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr"/>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>UMaine offshore wind project gets big boost</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr"/>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>'Blue Economy' takes next steps</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr"/>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>The Student Cha</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr"/>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Scientists find marine animals adapt to cope with man-made sea changes</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr"/>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Mark Zuckerberg donates $50M to University of Hawaii to study impact of climate change on ocean</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr"/>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Deadly virus attacks starfish</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr"/>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>A TEST OF OCEAN'S HEALTH: BODEGA MARINE LAB SCIENTISTS STUDY EFFECTS OF INCREASING ACIDITY ON SHELLFISH</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr"/>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Hispanic Access Foundation Issues Public Comment on NOAA Notice</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr"/>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Stanford University, Monterey Bay Aquarium And MBARI Launch New Center To Tackle Global Threats To The Oceans</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr"/>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Ocean's Heat Cycle Shows That Atmospheric Carbon May Be Headed Elsewhere</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr"/>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>West coast scientists discuss sea star dissolving distresses</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr"/>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Written Statement of Administrator Kathryn Sullivan at the FY 2016 Budget Request Hearing</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr"/>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Stop oil and gas exploration madness, SA scientists urge government</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr"/>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Big UA computers tackle black hole, ocean temps no problem for UA's high-performance computers</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr"/>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Maine islands at high risk</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr"/>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>House Infrastructure Subcommittee Issues Testimony From Office of Governor of Virginia</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr"/>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>IMLS Announces Grants of $25 Million for U.S. Museums</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr"/>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Scientists Available for Comment on Current Government Shutdown</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr"/>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>N.J. ENVIRONMENTAL PROTECTION DEPT.: NEW JERSEY RECEIVES $995,000 FEDERAL GRANT FOR WILDFIRE MITIGATION EFFORTS IN AREA OF JOINT BASE MCGUIRE-DIX-LAKEHURST</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr"/>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Reed, Whitehouse announce highlights for Rhode Island in federal budget</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr"/>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>COP26 summit opens: Focus on how to hit 1.5°C target — and billions in funding</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr"/>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Without Safeguarding Oceans, Achieving the 2030 Sustainable Development Agenda will Be Impossible</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr"/>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Northern Arizona University: Institute for Tribal Environmental Professionals Earns $3.2 Million Grant to Help Tribes Prepare for Changing Climate</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr"/>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>To the rescue</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr"/>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>The chemist who's still asking 'why'? Feature</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr"/>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Institute readies for remodel</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr"/>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Summer of 2010 was hottest ever in Tri-Cities - so far</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr"/>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Massachusetts Department of Housing and Economic Development: Baker-Polito Administration Announces $450,000 in Grants to Bring the Internet of Things to State's Blue Economy</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr"/>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Testimony of Administrator Kathryn Sullivan at the NOAA FY 2016 Budget Hearing</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr"/>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Written Testimony of Rear Admiral Gerd F. Glang, Director, Office Of Coast Survey, National Oceanic and Atmospheric Administration, U.S. Department of Commerce During A Legislative Hearing On Six Bills</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr"/>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Newport man uses kelp to create wellness product while promoting human and ocean health</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr"/>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Are species endangered by movies?</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr"/>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>NOAA: Water Clarity Study Sheds Light on Bering Sea Change</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr"/>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Teresa Heinz and the Heinz Family Foundation Announce Recipients of $1 Million Heinz Awards</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr"/>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Indian AffairsAnnounces $6.5 Million for Tribal Climate Change Adaptation and Ocean and Coastal Management Planning Projects</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr"/>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Gullah/Geechee Nation, Gullah/Geechee Sea Island Coalition Issue Public Comment on FEMA Notice</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr"/>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Ocean and Climate Research Gets $9M Boost</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr"/>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Axios: Nonprofit tackles carbon removal from oceans</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr"/>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>House Appropriations Committee Issues Report on Commerce, Justice, Science, Related Agencies Appropriations Bill 2019 (Part 2 of 6)</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr"/>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Senate Appropriations Committee Issues Report on Departments of Commerce, Justice, Science, Related Agencies Appropriations Bill, 2018 (Part 2 of 7)</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr"/>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Some Corals Adjusting to Rising Ocean Temperatures, Stanford Researchers Say</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr"/>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Future of Coral Reefs in the Time of Climate Change [opinion]</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr"/>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>UNCW Group Receives NSF Grant for Coral Reef Research</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr"/>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>REP. JIM BRIDENSTINE HOLDS A HEARING ON THE BUDGET PROPOSAL FOR THE NATIONAL OCEANIC AND ATMOSPHERIC ADMINISTRATION FOR F.Y. 2017</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr"/>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Doing the math on post-November Senate KXL support — Louisiana Senate candidates talk climate change — States hit wall of confusion over EPA rules — Greens press Google for supporting Lee Terry</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr"/>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>REP. DAVID SCHWEIKERT HOLDS A HEARING ON NATIONAL OCEANIC AND ATMOSPHERIC ADMINISTRATION BUDGET FOR F.Y. 2015</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr"/>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>House Space Subcommittee Issues Testimony From University of California Director Leinen</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr"/>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>'Year of the Salmon' to feature major Gulf habitat study</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr"/>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Rep. Brian Baird wraps up sixth and final term</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr"/>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>How investors are providing the green to save the ocean blue</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr"/>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Climate change will affect fish stocks around the African continent</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr"/>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Life aquatic with OSU needs new research ship</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr"/>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Our sick ocean is a game-changer</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr"/>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>REP. JOHN FLEMING AND REP. TOM MCCLINTOCK HOLD A JOINT HEARING ON THE U.S. FISH AND WILDLIFE SERVICE AND THE NATIONAL OCEANIC AND ATMOSPHERIC ADMINISTRATION SPENDING PRIORITIES</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr"/>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Brooklyn Artist Addresses the Disappearance of Coral Reefs</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr"/>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Stony Brook University: Doctoral Student Working to Restore Shellfish Population</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr"/>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>HURRICANES OF DATA</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr"/>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Reliance on fossil fuels doesn't oblige investing in them</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr"/>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Climate claims; Global warming singled out long before latest IPCC report</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr"/>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Scientists First to Develop Rapid Cell Division in Marine Sponges: Florida Atlantic University</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr"/>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Salesforce.Com Inc to Participate In A Panel Discussion 'Making Digital Globalization Inclusive' - Final</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr"/>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>House Natural Resources Committee Issues Testimony From U.S. Fish &amp; Wildlife Service Deputy Director for Policy Guertin</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr"/>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>H APPROPS HEARING ON AMERICAN INDIAN AND ALASKA NATIVE FUNDING, AFTERNOON SESSION</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr"/>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>MARINE SCIENTISTS START SCHOOL YEAR WITH NEW FACILITY\BETTER LABS, DOCK WILL AID STUDENTS' TRIPS TO SEA, NEARBY RIVERS</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr"/>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Climate Vulnerable Nations Go Carbon Neutral, Plead for Help</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr"/>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Geology Highlights: New Science Posted Online 8 March 2011</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr"/>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>REP. DOC HASTINGS HOLDS A HEARING ON OCEAN COASTAL AND INLAND ACTIVITIES RESTRICTIONS</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr"/>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Iron-seeding to grow plankton could be tonic or disaster for ceans: ; Company hopes to sell carbon credits to do it</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr"/>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Jersey Shore residents want more time to review wind project</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr"/>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Salesforce.com Inc Chairman and CEO Marc Benioff to Participate in WEF 2018 Panel Discussion 'Future Shocks: Rogue Technology.' - Final</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr"/>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Fall 2014 Kudos</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr"/>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>National Oceanic and Atmospheric Administration Issues Testimony on FY17 Budget Request</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr"/>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>OSU debuts documentary on coral reef crisis</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr"/>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>At the edge of a warming world</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr"/>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Trump administration's plans would harm ; South Florida waters</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr"/>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>PBS NewsHour For March 12, 2013</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr"/>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>University of Southampton: EUR 3.5 Million to Predict the Future for Coral Reefs</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr"/>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Congressional Research Service: 'Science &amp; Technology Issues for 118th Congress' (Part 5 of 5)</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr"/>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Tongan democracy needs more time to flourish, King tells parliament</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr"/>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Environment America Research &amp; Policy Center, 2 Collaborators Issue Public Comment to Interior Dept.</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr"/>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Capturing the ripple effect on ecosystems</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr"/>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>INTERVIEW: 'Bright spots' can help islands navigate towards sustainable future, says UN biodiversity chief</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr"/>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>UW-Oshkosh biotechnologist to be recognized as Regent Scholar</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr"/>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>THE STATE; Sea snail won't get protection; Reacting to petitions, federal agency says pinto abalone is not at risk of extinction.</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr"/>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Campus round-up</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr"/>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Sen. Murkowski: Funding Package Passes Senate</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr"/>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>House Budget Committee Issues Report on Build Back Better Act - Title IX - Science, Space &amp; Technology Committee (Part 36 of 64)</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr"/>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Rabbits of the sea may save reefs</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr"/>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>UTA Scientists Examine Global Warming Events from Millions of Years Ago to Gain Insight into Present-Day Climate Change</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr"/>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>'A bittersweet moment': Animal rehab center releases final five seals before closing down</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr"/>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Jersey Shore residents demand more time to review offshore wind project</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr"/>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Triumph in the tropics --- AFTER 40 YEARS, JAMES COOK UNIVERSITY IS PUNCHING ABOVE ITS WEIGHT</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr"/>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Oregon State University to Lead Building of Second Ship for National Research Fleet</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr"/>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>House Select Committee on Climate Crisis Issues Testimony From Tribes &amp; Climate Change Program Co-Manager Cooley</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr"/>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Sen. Cantwell, Democrats Deliver Wins to Boost Sustainable Aviation Fuel, Support Coastal, Climate Resiliency, Improve Weather Forecasting in Inflation Reduction Act</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr"/>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Space-age lab expands underwater research</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr"/>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Haunted waters: Hunting ghost traps in Maine</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr"/>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Climate change: What can Mississippi expect?</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr"/>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Hopes rise of breakthrough at crucial climate summit</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr"/>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Science the key to building new Tassie economy</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr"/>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>SEN. BILL NELSON HOLDS A HEARING ON SOUTH FLORIDA'S CHANGING COASTLINE</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr"/>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>SEN. MARK BEGICH HOLDS A HEARING ON COAST GUARD/NOAA BUDGETS</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr"/>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>House Appropriations Subcommittee Issues Testimony From Shoalwater Bay Indian Tribe Chairwoman Nelson</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr"/>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>University of Miami Officially Opens New Research Facility on Virginia Key Campus</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr"/>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Senate Energy Committee Issues Report on Reinvesting in Shoreline Economies &amp; Ecosystems Act</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr"/>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Residents seek more time to review offshore wind project</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr"/>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>United States: US Proposal Would Create World's Largest Marine Sanctuary</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr"/>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Tonga welcomes visitors to celebrate life of a King</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr"/>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>NOAA Announces $4.9 Million for Collaborative Research Projects to Help Coastal Communities Manage Effects of Climate Change</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr"/>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Elon Musk backs UM grad's climate research</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr"/>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>House Select Committee on Climate Crisis Issues Report Entitled 'Solving Climate Crisis 2022 - Key Accomplishments and Additional Opportunities-Majority Staff Report' (Part 11 of 13)</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr"/>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Wonkbook: Congress just may avoid a government shutdown</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr"/>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>Sen. Cantwell: Inflation Reduction Act Delivers Wins for Washington State</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr"/>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>SEN. SHELDON WHITEHOUSE HOLDS A HEARING ON CLIMATE CHANGE</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr"/>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Lawsuit Launched Over Trump's Failure to Protect Emperor Penguins</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr"/>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Global warming study will focus on lobsters</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr"/>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>United States: Power Dynamics Innovations LLC to Supply Centerboard System for New Regional-Class Research Vessel</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr"/>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>Northern, Southern Leaders Petition to Protect the Arctic from Climate Change</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr"/>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>The new climate bill will</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr"/>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>More extreme weather events likely in Miss., experts say</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr"/>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>ENVIRONMENT: Climate Change Threatens Livelihoods of Africa's Fishermen</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr"/>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>The World Surf League Leads the Way for Global Professional Sports by Becoming Carbon Neutral and Eliminating Single-Serve Plastics</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr"/>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>2010 'could be world's warmest year on record'</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr"/>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>Jersey Shore residents look for more time to review plan</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr"/>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Studying The arctic amid the big melt; Researchers from the Virginia Institute of Marine Science are on a mission to understand a little-known environment undergoing changes likely to reverberate around the globe.</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr"/>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>A captive orca and a chance for our redemption</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr"/>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>REP. EDWARD J. MARKEY HOLDS A HEARING ON U.S. PREPAREDNESS FOR GLOBAL WARMING</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr"/>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>Power Dynamics Innovations LLC to Supply Centerboard System for New Regional-Class Research Vessel</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr"/>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr"/>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Congressional Research Service: 'Science and Technology Issues for 118th Congress' (Part 5 of 5)</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr"/>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>NSF Awards Contract to Carry OOI Into the Next Decade and Beyond</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr"/>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr"/>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>Something fishyFinding Nemo' wasn't so entertaining for real clownfish - now conservationists worry about Finding Dory'</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr"/>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Nature Conservancy Issues Public Comment on NOAA Notice</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr"/>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>Pingree Votes for Bill to Keep Government Operating</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr"/>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Environmental Defense Fund Issues Report Entitled 'New and Emerging Technologies for Sustainable Fisheries: A Comprehensive Landscape Analysis'</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr"/>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Sustaining local fishermen</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr"/>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>'Finding Nemo' wasn't so entertaining for real clownfish. Now conservationists worry about 'Finding Dory'.</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr"/>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr"/>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Measures needed to preserve Nha Trang Bay corals</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr"/>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr"/>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>CSUN Prof Investigates Why Some Corals are Thriving During Global Warming</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr"/>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Whitehouse supports green energy provisions in tax bill</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr"/>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr"/>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>TWU's Dr. Erica Grimm Artwork Showcased in Amsterdam</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr"/>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr"/>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>TAKING THE HELM AT MARINE LAB: PENNGROVE MAN HOPES TO EXPAND BODEGA SITE'S RESEARCH DESPITE BUDGET WOES</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr"/>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr"/>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>SEN. BARBARA BOXER AND SEN. SHELDON WHITEHOUSE HOLD A HEARING ON OIL DISPERSANT USAGE IN THE GULF</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr"/>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr"/>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>United States: U.S.-China Strategic &amp; Economic Dialogue Outcomes of the Strategic Track</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr"/>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr"/>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>A playground swimming with life</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr"/>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr"/>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>ACP Issues Public Comment to Interior Dept.</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr"/>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr"/>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Oysters on acid</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr"/>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr"/>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Guam should prepare for N Korea strike: Senator</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr"/>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr"/>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>$3 Million Estate Gift from Denise B. Evans Funds Oceanographic Research</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr"/>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr"/>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Sen. Cantwell on Track to Secure Historic Investment in Salmon Recovery</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr"/>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr"/>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Executive on President Trump's Proposed Budget: An Assault on the Environment, Economy and Mobility of King County</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr"/>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr"/>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Construction Starts on Research Ship to Be Operated by Oregon State University</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr"/>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr"/>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Written Testimony of Dr. Samuel Pooley Pacific Islands Fisheries Science Center Director on Magnuson-Stevens Act Reauthorization</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr"/>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr"/>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>University of Montana Researcher Helps Reveal Changes in Water of Canadian Arctic</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr"/>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr"/>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>SEN. JEFF MERKLEY HOLDS A HEARING ON EFFECTS OF CLIMATE CHANGE ON WILDLIFE AND AGRICULTURE, PANEL 2</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr"/>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr"/>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>House Select Committee on Climate Crisis Issues Testimony From National Wildlife Federation President O'Mara (Part 2 of 2)</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr"/>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr"/>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>‘Six times the size of Yosemite’: the new marine sanctuary for the super-rich LA coast</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr"/>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr"/>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>House of Committee on Rules Issues Report on Tribal Coastal Resiliency Act (Part 1 of 2)</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr"/>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr"/>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Craters may have been gas releases</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr"/>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr"/>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Vision needed to regulate seafloor mining</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr"/>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr"/>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>In the Keys, looking forward</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr"/>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr"/>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>REP. ROB BISHOP HOLDS A HEARING ON FEDERAL AGENCIES' SELECTIVE ENFORCEMENT OF ESA CONSULTATION</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr"/>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr"/>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Scientists set sail to study vital plankton</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr"/>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr"/>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Marine Technology and Life Sciences Seawater Complex Breaks Ground</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr"/>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr"/>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>India, France to enhance cooperation on marine science, technology</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr"/>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr"/>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Harbor Branch to lease research ship</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr"/>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr"/>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Anna Michel Receives Gulf Research Program Early-career Research Fellowship</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr"/>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr"/>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>No Day at the Beach: How Trump EPA Budget Cuts Would Harm Maine's Coast, Public Health, and Economy</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr"/>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr"/>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>FAU Gets $736,000 From NASA to Study Coastal Carbon Budget From Space</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr"/>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr"/>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Reefs are in trouble. Can scientists nurture more resilient coral?</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr"/>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr"/>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>THE LOBSTER TRAP</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr"/>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr"/>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Study Reveals Corals' Influence on Reef Microbes</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr"/>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr"/>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>Alaska's Uncertain Food Future</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr"/>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr"/>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Wanda Fish Technologies Enters Collaboration with Tufts University</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr"/>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr"/>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>REP. HOWARD L. BERMAN HOLDS A MARKUP OF H.R. 152 AND A HEARING ON CLIMATE CHANGE AND THE ARCTIC</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr"/>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr"/>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>EDITORIAL: A 'blue' legacy</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr"/>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr"/>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>BayMobile Goes the Extra Mile to Schools</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr"/>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr"/>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>The science laboratory From little things, big things grow</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr"/>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr"/>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>University of Pennsylvania: Declines in Shellfish Species on Rocky Seashores Match Climate-Driven Changes</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr"/>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr"/>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>Conservation Alliance of St. Lucie County Issues Public Comment to Commerce Dept.</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr"/>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr"/>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>House Rules Committee Issues Report on Coastal Zone Management Act (Part 1 of 3)</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr"/>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr"/>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>Should scientists march?</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr"/>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr"/>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>The aspiring ‘coral factory’ restoring reefs wrecked by climate change</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr"/>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr"/>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>Rep. Carbajal, Commerce Announce Chumash Heritage National Marine Sanctuary Moves to Designation Phase</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr"/>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr"/>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>Crochet coral reef needles our conscience</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr"/>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr"/>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>THE The plentiful catch that brought wealth to fishing families is at risk, as climate change warms the Gulf of Maine. A way of life is on the line, but lobstermen can't, or won't, imagine another.</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr"/>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr"/>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>US Proposal Would Create World's Largest Marine Sanctuary</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr"/>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr"/>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>UK Research &amp; Innovation: Ambitious Research to Study Key Environmental Science Questions</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr"/>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr"/>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>Hawai'i's reefs showing the strain</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr"/>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>REP. JOHN FLEMING HOLDS A HEARING ON PENDING BUSINESS</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr"/>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr"/>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>The lobster trap</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr"/>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr"/>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>Macron invites scientists to a different climate</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr"/>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr"/>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>LETTERS IN THE EDITOR'S MAILBAG</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr"/>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr"/>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>Senate Energy &amp; Natural Resources Committee Issues Testimony From American Samoa Gov. Mauga</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr"/>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>Oregon research threatened in a pandemic world</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr"/>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr"/>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>'Humanity is facing an existential risk ... people need to do whatever is necessary to prevent an existential threat' [Blogs]</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr"/>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr"/>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>REP. HAL ROGERS HOLDS A MARKUP ON THE F.Y. 2016 ENERGY AND WATER APPROPRIATIONS BILL; THE F.Y. 2016 MILITARY CONSTRUCTION AND VETERANS AFFAIRS APPROPRIATIONS BILL; AND A REPORT ON THE SUBALLOCATION OF BUDGET ALLOCATIONS FOR F.Y. 2016</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr"/>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr"/>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>New Brunswickers backed stem cell lab</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr"/>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr"/>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>Senate Committee on Commerce, Science and Transportation Holds a Hearing on Nominations - Final</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr"/>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr"/>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>Climate report is 'code red for humanity'</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr"/>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr"/>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>LOCAL FORECLOSURE RATES DECREASE</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr"/>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr"/>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>$65,650 Available in Cooperative Agreement for Workshop on Climate Change, Wildlife Health</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr"/>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr"/>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>Bill &amp; Melinda Gates Foundation Honors Hertz Foundation Fellows; Biochar Group One of Eight University Teams to "Reinvent the Toilet"</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr"/>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr"/>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>GLOBAL WARMING Are advocates adhering to science, or the party line?</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr"/>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr"/>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>REP. KEN CALVERT HOLDS A HEARING ON THE ENVIRONMENTAL PROTECTION AGENCY BUDGET REQUEST FOR F.Y. 2016</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr"/>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr"/>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>Top News Advisory for Friday, Oct. 16, 2015</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr"/>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr"/>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>Digging otters play key role in health of eelgrass: UVic study</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr"/>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr"/>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>‘Garbage’ models and black boxes? The science of climate disaster planning</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr"/>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr"/>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Summer Of 2010 Was Hottest Ever In Tri-Cities - So Far</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr"/>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr"/>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>Universities study shellfish to help safeguard the industry</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr"/>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr"/>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>In New Ireland</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr"/>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr"/>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>Climate change is a health care emergency</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr"/>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr"/>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>Water, water, no longer everywhere</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr"/>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr"/>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>FOR THE NEXT 2016</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr"/>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr"/>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Sens. Feinstein, Padilla, Rep. Carbajal Call for Chumash Heritage National Marine Sanctuary Designation</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr"/>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr"/>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>Hawaii reefs showing strain of overuse, lack of protection</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr"/>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr"/>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>Shining Stars</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr"/>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr"/>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>Ultrasounds on abalone improve spawning for endangered species</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr"/>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr"/>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>The institute As director of UTMSI, Robert Dickey shepherds a ...[Derived Headline]</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr"/>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr"/>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>guests comments</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr"/>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr"/>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>Salesforce.Com Inc CoCEO Marc Benioff to Speak at Waste Management Sustainability Forum - Final</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr"/>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr"/>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>BBC Travel Show Documents Plans to Protect Its Marine Resources</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr"/>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr"/>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>Hole new world</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr"/>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr"/>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>OSU Names Marine Science Leader from Southern California to Head College</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr"/>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr"/>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>A 'blue' legacy</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr"/>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr"/>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>House-Passed Build Back Better Bill Includes Key Sen. Cantwell Priorities</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr"/>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr"/>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>SSU Molecular Biologist Headed to Antarctica to Study Effects of Climate Change</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr"/>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr"/>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>Antigua Faces Climate Risks with Ambitious Renewables Target</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr"/>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr"/>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>Mainer leads scientists who set sail to study vital plankton</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr"/>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr"/>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>SEN. JOHN D. ROCKEFELLER IV HOLDS A HEARING ON NOMINATIONS</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr"/>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr"/>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>Congress Reaches End-of-Year Compromise on Spending, Taxes</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr"/>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr"/>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>EPA Seeks Comments on Carbon Pollution Emission Guidelines for Existing Stationary Sources</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr"/>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr"/>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>REP. KEN CALVERT HOLDS A HEARING ON THE F.Y. 2017 BUDGET FOR THE DEPARTMENT OF THE INTERIOR</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr"/>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr"/>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>REP. ALAN B. MOLLOHAN HOLDS A HEARING ON THE COMMERCE DEPARTMENT</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr"/>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr"/>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>aine paleobotanist George Jacobson Jr [Derived headline]</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr"/>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr"/>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>U.S. Embassies &amp; Consulates Closed Today; Select U.S. Forces on Higher Alert; U.S. Embassies Around the World; Rain Ushers in Cooler Air Today; CBS Goes Dark in Major Cities; Bleacher Report</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr"/>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr"/>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>Rep. Carbajal, Sens. Feinstein, Padilla Call for Chumash Heritage National Marine Sanctuary Designation</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr"/>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr"/>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>Science lectures and notes</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr"/>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr"/>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>Project aims to kick-start Waikiki coral reefs</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr"/>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr"/>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>As we prepare to go to hell in a handcart, it's refreshing to know that our</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr"/>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr"/>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>Nature Conservancy: World's Largest Dynamic Kelp Map Launched, Uncovering Unprecedented Declines in Key Areas of California</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr"/>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr"/>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>House Homeland Security Committee Issues Testimony From Homeland Security Secretary Mayorkas (Part 1 of 2)</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr"/>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr"/>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>House Natural Resources Committee Issues Testimony From Marshall Islands Ambassador Zackios</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr"/>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr"/>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>Letters to the Editor</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr"/>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr"/>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>International Recognition of University of Plymouth Research</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr"/>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr"/>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>James Delingpole: Time to put my money where my mouth is</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr"/>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr"/>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>SEN. MARIA CANTWELL HOLDS A HEARING ON NOAA OVERSIGHT</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr"/>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr"/>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>HSU's Marine Lab Turns 50</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr"/>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr"/>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>NOAA Fisheries Celebrates 150th Anniversary</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr"/>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr"/>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>UPSC Essentials - Weekly news express with MCQs: India as most populous nation, WMO’s Climate report, and more</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr"/>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr"/>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>Bates College students and professors are raising both appreciation for coastal grasslands' ability to soak up global-warming carbon and concern over human activity that's restricting it.</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr"/>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr"/>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>Senate Homeland Security &amp; Governmental Affairs Committee Issues Testimony From Homeland Security Secretary Mayorkas (Part 1 of 2)</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr"/>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr"/>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>A filmmaker's view of Earth's demise</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr"/>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr"/>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>Baird's way</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr"/>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr"/>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>Should Seychelles Keep It in the Ground? Finance Minister Responds to Oil Exploration Concerns</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr"/>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr"/>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>Oregon Agriculture, Forestry Departments, Oregon Watershed Enhancement Board Issue Public Comment on USDA Notice</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr"/>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr"/>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>REP. MATT SALMON HOLDS A HEARING ON U.S. POLICY IN THE PACIFIC</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr"/>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr"/>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>Sen. Padilla, Colleagues Call for Chumash Heritage National Marine Sanctuary Designation</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr"/>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr"/>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>Thinking on run vital in cold climate</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr"/>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr"/>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>REP. BRIAN BAIRD HOLDS A HEARING ON OIL SPILL CLEANUP TECHNOLOGY</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr"/>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr"/>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>REEF'S ROAD TO RECOVERY</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr"/>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr"/>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>Dr. Cora Marrett, Acting Deputy Director Speaks on National Science Foundation Biography 'Igniting Our Imagination'</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr"/>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr"/>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>As we prepare to go [...]</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr"/>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr"/>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>HOUSE APPROPRIATIONS COMMITTEE, INTERIOR, ENVIRONMENT, AND RELATED AGENCIES SUBCOMMITTEE HEARING ON AMERICAN INDIAN/ALASKA NATIVE PUBLIC WITNESSES, PART ONE</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr"/>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr"/>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>Who is, and isnï¿½t, caring for Earth</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr"/>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr"/>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>Center for Biological Diversity Issues Public Comment on NOAA Notice</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr"/>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr"/>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>Meet the world's largest plant: a single seagrass clone stretching 180 km in Western Australia's Shark Bay</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr"/>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr"/>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>Community Outdoor Outreach Program Provides Opportunity to Get Outside</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr"/>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr"/>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>Robotic ship sets off to retrace the Mayflower's famous journey</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr"/>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr"/>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>Tuesday briefing: Johnson – let's get on with the Wab</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr"/>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr"/>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>We've Filed An Initiative: Protect Washington Act</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr"/>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr"/>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>Scientists tinker with evolution to save Hawaii coral reefs</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr"/>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr"/>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>Fast news</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr"/>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr"/>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>University of Alaska-Southeast: From Streambed to Glacial Ice, Students Lead Research at the Alaska Coastal Rainforest Center</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr"/>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr"/>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>U.S.-Cuba Relationship</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr"/>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr"/>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>UC-San Diego Scripps Institution of Oceanography: Phenomenal Phytoplankton - Scientists Uncover Cellular Process Behind Oxygen Production</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr"/>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr"/>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>Taking on the world</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr"/>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr"/>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>HOUSE APPROPRIATIONS COMMITTEE, INTERIOR, ENVIRONMENT, AND RELATED AGENCIES SUBCOMMITTEE HEARING ON THE DEPARTMENT OF THE INTERIOR, F.Y. 2019</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr"/>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr"/>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>University of Miami: Marine Biologists, Local Officials Seek Answers to Recent Fish Kill</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr"/>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr"/>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>Beauty of the beasts</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr"/>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr"/>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>Samish tribe, Russian indigenous group compare cultures</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr"/>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr"/>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>World: Promoting Climate Change Action in Latin America and the Caribbean</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr"/>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr"/>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>REP. EDWARD WHITFIELD HOLDS A HEARING ON REGULATORY BARRIERS TO EXPORT COAL AND NATURAL GAS</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr"/>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr"/>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>President's Budget Highlights for the Northern Mariana Islands</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr"/>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr"/>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>Pledge adds pork to steak holder campaign</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr"/>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr"/>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>Marsden funding helps Otago researchers unlock secrets of ageing</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr"/>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr"/>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>U.S. REPRESENTATIVE EDWARD WHITFIELD (R-KY) HOLDS A HEARING ON CLIMATE CHANGE ASSESSMENTS</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr"/>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr"/>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>Rutgers Findings May Predict the Future of Coral Reefs in a Changing World</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr"/>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr"/>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>Hawaii researchers accelerate evolution in attempt to save Hawaii's coral reefs</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr"/>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr"/>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>Written Testimony of DHS Secretary Jeh Johnson for a House Committee on Appropriations, Subcommittee on Homeland Security Hearing</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr"/>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr"/>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>Auburn University Research Team Seeks To Improve Climate Information, Understanding For Marine Sanctuary Management Planning</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr"/>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr"/>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>Deep-Red Alaska, Feeling Thaw, Devises Climate Change Plan</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr"/>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr"/>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>Coal Smarter Growth, 8 Collaborators Issue Public Comment to CEQ</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr"/>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr"/>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>Sen. Murkowski Champions Alaska Priorities in Year-End Budget Bills</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr"/>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr"/>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>University of California: Teaching Tools Show Climate Change Is Just One Aspect of a Changing World</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr"/>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr"/>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>SAVANNAH STATE MARINE SCIENTISTS START SCHOOL YEAR WITH NEW FACILITY</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr"/>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr"/>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>SEN. BARBARA MIKULSKI HOLDS A MARKUP OF COMMERCE, JUSTICE AND SCIENCE, AND TRANSPORTATION, HOUSING AND URBAN DEVELOPMENT APPROPRIATIONS BILLS</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr"/>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr"/>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>On a quest to restore coral University of Miami hoping to rebuild state's decimated reefs</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr"/>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr"/>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>Norwich researchers investigate how marine ecosystems regulate climate</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr"/>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr"/>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>Northeast States for Coordinated Air Use Management Issues Public Comment to EPA</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr"/>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr"/>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>URI's Graduate School of Oceanography Scientist Examining Microscopic Organisms in Narragansett Bay to Measure Climate Change</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr"/>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr"/>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>President's view of research casts shadow over Alaska marine science conference</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr"/>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr"/>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>Call for Nominations for 2015 Communication Awards</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr"/>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr"/>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>Obama's One-Year Environmental Grades Range From 'B+' to 'C-'</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr"/>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr"/>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>Microscope A week's worth of science news; WHY LIONS LIKE PRIDES</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr"/>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr"/>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>House Select Committee on Climate Crisis Issues Testimony From Quinault Indian Nation VP Sharp</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr"/>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr"/>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>State disputes study that predicts sharp decline in Gulf of Maine lobsters</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr"/>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr"/>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>REP. LAMAR SMITH HOLDS A HEARING ON THE ADMINISTRATION'S CLIMATE PLAN</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr"/>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr"/>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>University of Maine: SEANET's Legacy - The Impact of Interdisciplinary Aquaculture Research on Maine</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr"/>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr"/>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>Study Suggests Estuaries May Experience Accelerated Impacts of Human-caused CO2</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr"/>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr"/>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>SEN. BARBARA BOXER HOLDS A HEARING ON CLEAN ENERGY JOBS AND AMERICAN POWER ACT</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr"/>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr"/>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>REP. MIKE SIMPSON HOLDS A HEARING ON THE EPA BUDGET</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr"/>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr"/>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>Seaweed offers hope</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr"/>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr"/>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>$2 Million Available in Cooperative Agreement for Students' Environmental Literacy</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr"/>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr"/>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>‘Impossible to Ignore’: Why Alaska Is Crafting a Plan to Fight Climate Change</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr"/>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr"/>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>PBS NewsHour For July 19, 2012</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr"/>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr"/>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>Editorial: Delay a problem for climate reports</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr"/>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr"/>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>Trump’s view of research casts shadow over Alaska marine science conference</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr"/>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr"/>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>Winning Ways</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr"/>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr"/>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>Portland Press Herald, Maine, Green Plate Special column</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr"/>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr"/>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>Rep. Pingree Issues Statement on FY 2020 Funding Bills</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr"/>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr"/>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>NMMA, Congressional Champions Go to Bat for Industry Priorities in Environmental and Infrastructure Bill</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr"/>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr"/>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>Troubled waters: A debate grows over the management of the Waikiki Aquarium</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr"/>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr"/>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>State disputes study that predicts sharp decline in Gulf of Maine lobster population</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr"/>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr"/>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>House Appropriations Subcommittee Issues Testimony From Metlakatla Indian Community Councilmember Boxley</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr"/>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr"/>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>Sen. Murkowski Issues Remarks to Alaska State Legislature</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr"/>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr"/>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>2010: Art for arts sake ... and for a better community as well</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr"/>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr"/>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>REP. NORMAN D. DICKS HOLDS A HEARING ON THE EPA BUDGET</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr"/>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr"/>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>Climate change: What you're saying</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr"/>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr"/>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>At Your Service</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr"/>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr"/>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>Bridging Science and Tradition</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr"/>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr"/>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>Mouginis-Mark Appointed Director for UH Manoa Sustainability Initiatives</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr"/>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr"/>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>Climate change solutions can't wait</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr"/>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr"/>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>Virginia Tech Launches the Center for Coastal Studies to Address Complex Issues in the Coastal Zone</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr"/>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr"/>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>State disputes study finding lobster on cusp of decline</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr"/>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr"/>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>Rice University: Algae Team Rosters Could Help ID 'Super Corals'</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr"/>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr"/>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>Scripps joins climate alliance | Institute created for 6 university partners</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr"/>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr"/>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>United States: United States-Cuba Relationship</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr"/>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr"/>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>Al Jazeera English - Al Jazeera Media Network: The battle over space emissions in Cornwall</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr"/>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr"/>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>REP. EDWARD WHITFIELD AND REP. JOHN SHIMKUS HOLD A JOINT HEARING ON ENVIRONMENTAL PROTECTION AGENCY BUDGET</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr"/>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr"/>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>White House Environmental Justice Advisory Council Issues Report Entitled 'Justice40, Climate and Economic Justice Screening Tool &amp; Executive Order 12898 Revisions' (Part 6 of 7)</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr"/>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr"/>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>STATE DEPARTMENT SPOKESPERSON JEN PSAKI HOLDS STATE DEPARTMENT REGULAR NEWS BRIEFING</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr"/>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr"/>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>University of Miami's quest to restore coral</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr"/>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr"/>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>$2 Million Available in Cooperative Agreements for Supporting Education of K-12 Students</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr"/>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr"/>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>REP. JAMES P. MORAN HOLDS A HEARING ON THE BUDGET FOR THE FISH AND WILDLIFE SERVICE</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr"/>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr"/>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>National Marine Manufacturers Association Outlines Advocacy Priorities in a Letter to President-Elect Biden</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr"/>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr"/>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>your say All letters must be signed with a name and suburb to be published</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr"/>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr"/>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>Glassell Family Foundation Donates $5 Million to UM</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr"/>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr"/>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>It's time to face carbon tax reality</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr"/>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr"/>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>What will President Trump mean for science?</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr"/>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr"/>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>LETERS TO THE EDITOR - 4/16/2006 - The immigration debate NAFTA impoverishes Latinos, makes them refugees</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr"/>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr"/>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>Five ways to fuel sustainable growth</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr"/>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr"/>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>What ever happened to Great British humour?</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr"/>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr"/>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>Airlines for America Issues Public Comment to CEQ</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr"/>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr"/>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>Senate Indian Affairs Committee Issues Testimony From National Congress of American Indians</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr"/>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr"/>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>A global environmental update</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr"/>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr"/>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>House Ways &amp; Means Subcommittee Issues Testimony From National Congress of American Indians</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr"/>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr"/>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>EPA clears way for broad limits on greenhouse gases</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr"/>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr"/>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>Climate change is the single biggest health threat facing humanity</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr"/>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr"/>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>AUDITIONS</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr"/>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr"/>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>Community Extra: Calendar</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr"/>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr"/>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>Letters To The Editor</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr"/>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr"/>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>Fossil-Fuel Divestment Growing [analysis]</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr"/>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr"/>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>The toxic aerosol that we breathe</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr"/>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr"/>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>REP. EDWARD WHITFIELD HOLDS A HEARING ON CLIMATE CHANGE POLICIES AND ACTIVITIES</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr"/>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr"/>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>Sen. Sanders Introduces Concurrent Resolution on Climate Emergency</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr"/>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr"/>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>Happy Chappy ride for Cancer Research</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr"/>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr"/>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>Kreiselmaier speaks at local GOP rally</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr"/>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr"/>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>Delayers pose same danger as deniers of climate change</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr"/>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr"/>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>Global Change Biology Issues 37 Research Articles in September 2017 Edition</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr"/>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr"/>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>Obama Creates Interagency Council and Task Force on Climate</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr"/>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr"/>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>UC Clermont students help restore, protect Appalachian wildlife</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr"/>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr"/>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>Climate Change Adaptation a Strategic Priority for FY2016 Technical Assistance Funding through Interior's Office of Insular Affairs</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr"/>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr"/>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>Press Release: Willis Towers Watson launches the Global Ecosystem Resilience Facility</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr"/>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr"/>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>Huon Aquaculture Group Ltd Annual Shareholders Meeting - Final</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr"/>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr"/>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>Oregon State Freezes Tuition for Returning Undergraduate Students</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr"/>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr"/>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>REP. ENI F.H. FALEOMAVAEGA HOLDS A HEARING ON FOREIGN CLIMATE CHANGE FINANCE ASSISTANCE</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr"/>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr"/>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>Help is needed to build more storm-resistant infrastructure | Commentary</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr"/>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr"/>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>CAICE Outreach Program Creates Next Generation of Environmental Scientists</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr"/>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr"/>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>Kicking Off Earth Week, EPA Honors New York Environmental Leaders</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr"/>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr"/>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>Climate change: How it led to an unequal world (Column: Active Voice)</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr"/>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr"/>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>Sops in the Works for Methanol-run Ships [Economy]</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr"/>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr"/>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>Caribbean Community Climate Change Ministers Demand Climate Justice in Declaration Ahead of COP26</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr"/>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr"/>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>Jacinda Ardern on culture wars, her plan for 2020 and how to cook snapper</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr"/>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr"/>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>Climate change: How it led to an unequal world</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr"/>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr"/>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>Willis Towers Watson Launches the Global Ecosystem Resilience Facility</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr"/>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr"/>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>The Prince and the Planet</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr"/>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr"/>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>Stevens: It's time to face carbon tax reality</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr"/>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr"/>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>Uni switching off fossil fuels</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr"/>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr"/>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>Hut Outside Usdan Heralds Weeks of Climate Programs</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr"/>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr"/>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>It was marvelous night for coral sex: Barry White, climate change and the quest for the Lionel Messi of the reef</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr"/>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr"/>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>Mars Hill Academy celebrates a successful year of learning</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr"/>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr"/>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>The problem with our paua</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr"/>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr"/>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>Creative writing competition winners 2022</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr"/>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr"/>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>Statement from Dr. Kathryn Sullivan on NOAA's Fiscal Year 2016 Budget Request</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr"/>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr"/>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>United Nations: AIS Forum nations eye stronger collaboration in blue economy</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr"/>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr"/>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>REP. EDWARD J. MARKEY HOLDS A HEARING ON THE AMERICAN CLEAN ENERGY SECURITY ACT OF 2009</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr"/>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr"/>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>Can solar geoengineering save us from climate change?</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr"/>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr"/>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>Northern Vancouver Island regional science fair winners - 2019</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr"/>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr"/>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>EPA Issues Report Entitled 'FY 2022-2026 EPA Strategic Plan' (Part 2)</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr"/>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr"/>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>ESA Selects 2018 Katherine S. McCarter Graduate Student Policy Award Recipients</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr"/>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr"/>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>Help is needed to build more storm-resistant infrastructure Guest columnist</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr"/>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr"/>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>OP-ED: NC State: The time to act on climate change is now</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr"/>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr"/>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>HOUSE APPROPRIATIONS COMMITTEE, INTERIOR, ENVIRONMENT, AND RELATED AGENCIES SUBCOMMITTEE HEARING ON ENVIRONMENTAL PROTECTION AGENCY, F.Y. 2019</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr"/>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr"/>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>EAC: Climate plan lacking in key area</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr"/>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr"/>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>PROMOTING PRIVATE INVESTMENT IN RENEWABLE ENERGY PROJECTS</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr"/>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr"/>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>Toms River: A Story of Science and Salvation Wins Best Book Award From National Academies; NPR, New York Times, and Seattle Times Also Take Top Prizes</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr"/>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr"/>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>Prince Albert II of Monaco Charges Forth as Eco-Warrior</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr"/>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr"/>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>Climate deniers give way to 'delayers'</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr"/>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr"/>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>Marine Scientist Explores Ecosystem Balancing Act on Caribbean Coral Reefs</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr"/>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr"/>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>Port Recognizes Washington Legislature for Progress on Climate, Workforce, and Freight Mobility</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr"/>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr"/>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>Chesapeake Bay Foundation Issues Public Comment on EPA Proposed Rule</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr"/>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr"/>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>Editorials from around New England</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr"/>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr"/>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>Calendar</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr"/>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr"/>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>DNC green</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr"/>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr"/>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>SWW sponsorship for national lobster hatchery</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr"/>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr"/>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>UNF Working With National Park Foundation To Stop Local Coastal Erosion</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr"/>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr"/>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>Pollen newsletter Vol. 21</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr"/>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr"/>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>Voices of the Valleys</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr"/>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr"/>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>BOOKS, WRITING, TALKS</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr"/>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr"/>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>OSU President: University Remains Committed to Addressing Climate Change</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr"/>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr"/>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>Rep. Blumenauer Introduces Concurrent Resolution on Climate Emergency</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr"/>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr"/>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>$2 Million Funding Available for Strengthening Public's and/or K-12 Students' Environmental Literacy</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr"/>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr"/>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>SEN. THOMAS R. CARPER HOLDS A HEARING ON EXTREME WEATHER EVENTS, PANEL 1</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr"/>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr"/>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>Marine Biology Issues Research Articles in October 2016 Edition</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr"/>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr"/>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>Experts: Schools not teaching climate change correctly</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr"/>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr"/>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>FERC Commissioner McNamee Issues Statement on Transcontinental Gas Pipe Line, Northeast Supply Enhancement Project</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr"/>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr"/>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>Remarks on America and the Asia Pacific: Partners in Prosperity</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr"/>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr"/>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>REP. LAMAR SMITH HOLDS A HEARING ON CONGRESS' CONSTITUTIONAL OVERSIGHT RESPONSIBILITIES</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr"/>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr"/>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>SENATE JUDICIARY COMMITTEE - HEARING</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr"/>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr"/>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>REP. EDWARD WHITFIELD HOLDS A HEARING ON DEPARTMENT OF ENERGY BUDGET</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr"/>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr"/>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>Here's where the Maine House of Representatives candidates stand on key issues</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr"/>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr"/>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>H APPROPS HEARING ON THE DEPARTMENT OF THE INTERIOR F.Y. 2018 BUDGET</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr"/>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr"/>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>Alberta's United Conservative Party seeks to join Saskatchewan's legal battle against federal carbon tax</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr"/>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr"/>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>Harnessing Local Pride for Global Conservation</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr"/>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr"/>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>FERC Commissioner McNamee Issues Statement on Columbia Gas Transmission</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr"/>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr"/>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>SEN. JAMES M. INHOFE HOLDS A HEARING ON THE PRESIDENT'S INTERNATIONAL CLIMATE AGENDA</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr"/>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr"/>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>REP. ED ROYCE HOLDS A HEARING ON FOREIGN AFFAIRS BUDGET FOR F.Y. 2015</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr"/>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr"/>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>Helen Clark - 'What Does Rio+20 Mean for Sustainable Development?' [document]</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr"/>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr"/>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>REP. ROB BISHOP HOLDS A HEARING ON WHITE HOUSE GREENHOUSE GAS EMISSION TARGETS</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr"/>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr"/>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>H APPROPS HEARING ON THE ENVIRONMENTAL PROTECTION AGENCY F.Y. 2018 BUDGET</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr"/>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr"/>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>CAMPAIGN 2018 MAINE GUBERNATORIAL DEBATE</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr"/>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr"/>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>Netherlands: Ministers for quality adaptation finance under the spotlight at COP27</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr"/>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr"/>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>Toughen penalty for the pollies caught out</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr"/>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr"/>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>Trump eyes climate skeptic for key White House environmental post</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr"/>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr"/>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>The speed bumps in India's electric vehicle ride that no one is talking about [Renewables]</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr"/>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr"/>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>The tax-free shipping company that took control of a country's UN mission</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr"/>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr"/>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>SEN. JOHN D. ROCKEFELLER IV HOLDS A HEARING ON THE NOMINATION OF GARY LOCKE TO BE COMMERCE SECRETARY</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr"/>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr"/>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>Baron Waqa named as new Nauru president</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr"/>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr"/>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>SEN. LISA MURKOWSKI HOLDS A HEARING ON THE NOMINATION OF RICK PERRY TO BE SECRETARY OF ENERGY</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr"/>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr"/>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>Readers write: Letters to the editor, March 19, 2017</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr"/>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr"/>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>UK Government: Darling and Miliband give green light to Thames Estuary revolution</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr"/>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr"/>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>LETTERS</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr"/>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr"/>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>Society for Freshwater Science Issues Public Comment on Corps of Engineers Proposed Rule</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr"/>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr"/>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>FERC: Certification of New Interstate Natural Gas Facilities</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr"/>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr"/>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>SEN. BERNARD SANDERS, I-VT., DEMOCRATIC PRESIDENTIAL CANDIDATE, HOLDS A TOWN HALL MEETING IN SOUTH CAROLINA</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr"/>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr"/>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>N.Y. State Climate Action Council Issues Report Entitled 'Scoping Plan'</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr"/>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr"/>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>United States: Remarks on America and the Asia Pacific: Partners in Prosperity</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr"/>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr"/>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>Marin Agricultural Land Trust (MALT) Partners with Hog Island Oyster Company to Protect Historic Tomales Bay Ranch</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr"/>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr"/>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>SECRETARY OF STATE JOHN KERRY DELIVERS REMARKS ON AMERICA AND THE ASIA PACIFIC AT SINGAPORE MANAGEMENT UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr"/>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr"/>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>REP. EDWARD WHITFIELD HOLDS A HEARING ON EPA'S GREENHOUSE GAS REGULATIONS</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr"/>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr"/>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>Suncorp Group Ltd Annual Shareholders Meeting - Final</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr"/>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr"/>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>SEN. CHARLES E. GRASSLEY HOLDS A HEARING ON THE NOMINATION OF SEN. JEFF SESSIONS TO BE ATTORNEY GENERAL, PANEL 1</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr"/>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr"/>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>SECRETARY OF STATE JOHN KERRY DELIVERS REMARKS AT "FORO DE RECTORES DE LAS AMERICAS"</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr"/>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr"/>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>House Natural Resources Committee Issues Testimony From Defenders of Wildlife</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr"/>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr"/>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>DANCE</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr"/>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr"/>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>California A.G. Becerra Files Motion to Intervene in Lawsuit to Defend America's Clean Car Standards</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr"/>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr"/>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>Time to raise ambitions for a greener world</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr"/>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr"/>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>'Research into climate change must be accurate and our reactions must be balanced'</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr"/>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr"/>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>FERC Commissioner McNamee Issues Statement on Transcontinental Gas Pipe Line, Gateway Expansion Project</t>
+        </is>
+      </c>
+      <c r="C735" t="inlineStr"/>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr"/>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>From Maine's warming waters, kelp emerges as a potentially lucrative cash crop</t>
+        </is>
+      </c>
+      <c r="C736" t="inlineStr"/>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr"/>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>Hemingway look-alike, shrinking Great Salt Lake, Polish war hero : News from around our 50 states</t>
+        </is>
+      </c>
+      <c r="C737" t="inlineStr"/>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr"/>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>REP. ALAN B. MOLLOHAN HOLDS A HEARING ON A U.S. SCIENCE ENTERPRISE OVERVIEW</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr"/>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr"/>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>REP. SANDER M. LEVIN HOLDS A HEARING ON THE GREEN JOBS ENERGY TAX INCENTIVE, PANEL 2</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr"/>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr"/>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>SEN. BILL NELSON HOLDS A HEARING ON AMERICAN COMPETITIVENESS - RESEARCH/DEVELOPMENT INVESTMENTS</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr"/>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr"/>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>FERC Commissioner McNamee Issues Statement on El Paso Natural Gas</t>
+        </is>
+      </c>
+      <c r="C741" t="inlineStr"/>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr"/>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>Budget 2017 Speech by SMS Desmond Lee: Building A Better Home, Better Future</t>
+        </is>
+      </c>
+      <c r="C742" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
